--- a/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10281</v>
+        <v>10175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25903</v>
+        <v>28475</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06370182539038034</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03826876055007424</v>
+        <v>0.03787383188121406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09641754748073621</v>
+        <v>0.1059901736158135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4024</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9113</v>
+        <v>9468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01559921981174151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003869432923104378</v>
+        <v>0.004126101353037794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03532697830566221</v>
+        <v>0.03670538396450398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21138</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13330</v>
+        <v>12948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32262</v>
+        <v>31973</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04013916577432439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02531340557742956</v>
+        <v>0.02458782421276681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06126350572850879</v>
+        <v>0.06071497900890068</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>27222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17689</v>
+        <v>17610</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39534</v>
+        <v>39363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1013274767184818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06584083830594155</v>
+        <v>0.06554840016478178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1471538672933125</v>
+        <v>0.1465172401742993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>36423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24847</v>
+        <v>26436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49470</v>
+        <v>49426</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1411986467079046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09632093491445992</v>
+        <v>0.1024817307727172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1917757335363522</v>
+        <v>0.1916043720112887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -857,19 +857,19 @@
         <v>63646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49632</v>
+        <v>48811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81436</v>
+        <v>82262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1208580363556061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09424769313190144</v>
+        <v>0.09268829198019134</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1546414323683767</v>
+        <v>0.1562090448671285</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>224321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>210130</v>
+        <v>211128</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>235385</v>
+        <v>236474</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8349706978911379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.782150767307449</v>
+        <v>0.7858633592971102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8761540103609008</v>
+        <v>0.880206105206441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -907,19 +907,19 @@
         <v>217511</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>204365</v>
+        <v>204444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229853</v>
+        <v>228163</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8432021334803539</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7922400965475376</v>
+        <v>0.7925481480598436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8910486416954753</v>
+        <v>0.8844965226494501</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>430</v>
@@ -928,19 +928,19 @@
         <v>441831</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>422253</v>
+        <v>422621</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>458184</v>
+        <v>458564</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8390027978700695</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8018254458429093</v>
+        <v>0.8025237463503758</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8700558863299511</v>
+        <v>0.8707772532954889</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>18257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10249</v>
+        <v>11213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27545</v>
+        <v>27705</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03702686010064715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02078517748255574</v>
+        <v>0.02274094786752368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05586299388387106</v>
+        <v>0.05618898520152995</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1053,19 +1053,19 @@
         <v>23741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16101</v>
+        <v>15184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34881</v>
+        <v>33423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04729180373343898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03207305296532561</v>
+        <v>0.03024606549675062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06948341381640601</v>
+        <v>0.06657793263676468</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -1074,19 +1074,19 @@
         <v>41998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30673</v>
+        <v>30809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56109</v>
+        <v>56704</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04220542381329317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0308249466235117</v>
+        <v>0.03096100685369043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05638587395488481</v>
+        <v>0.05698358905747916</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>97353</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80858</v>
+        <v>81855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116710</v>
+        <v>118140</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1974398325901849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1639864177646159</v>
+        <v>0.1660088246639424</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2366984788597721</v>
+        <v>0.2395981078869934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>147</v>
@@ -1124,19 +1124,19 @@
         <v>147791</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129268</v>
+        <v>129956</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169457</v>
+        <v>171266</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2943975510617504</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2574998504932881</v>
+        <v>0.2588717361428998</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3375562487004721</v>
+        <v>0.3411599957010792</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>240</v>
@@ -1145,19 +1145,19 @@
         <v>245143</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>218203</v>
+        <v>217896</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>274433</v>
+        <v>271816</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2463540537003536</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2192804715345531</v>
+        <v>0.2189718488405443</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2757883697436876</v>
+        <v>0.2731585819704818</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>377465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>356447</v>
+        <v>355662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395840</v>
+        <v>395174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7655333073091679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7229064530002823</v>
+        <v>0.7213139058067715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8027995329704505</v>
+        <v>0.8014471900277874</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>327</v>
@@ -1195,19 +1195,19 @@
         <v>330479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>308269</v>
+        <v>306984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>351395</v>
+        <v>348759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6583106452048106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6140683718950538</v>
+        <v>0.6115092832802725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6999743375920063</v>
+        <v>0.6947229365401887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>681</v>
@@ -1216,19 +1216,19 @@
         <v>707945</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>677019</v>
+        <v>678683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>735723</v>
+        <v>735246</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7114405224863531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6803626913824933</v>
+        <v>0.6820340946972715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7393564602155246</v>
+        <v>0.7388765812815311</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>7380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3546</v>
+        <v>3591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14553</v>
+        <v>15354</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02350512824064118</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01129244361889555</v>
+        <v>0.01143741981089267</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04634923285629561</v>
+        <v>0.04889946967426564</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4017</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1009</v>
+        <v>1156</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10319</v>
+        <v>10167</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01211813066924141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003043476906605588</v>
+        <v>0.003488671040040316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03113268425596219</v>
+        <v>0.03067447748448864</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>11397</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6340</v>
+        <v>5972</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22399</v>
+        <v>19962</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01765750619477305</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009823336963217289</v>
+        <v>0.009252433310201995</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03470369929489747</v>
+        <v>0.03092741871514166</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>32860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22990</v>
+        <v>23506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45147</v>
+        <v>46333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1046526948211702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07321964761034616</v>
+        <v>0.07486314643466346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1437854702451693</v>
+        <v>0.1475629801895308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1412,19 +1412,19 @@
         <v>63500</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49273</v>
+        <v>49975</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77680</v>
+        <v>78137</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1915768130679824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1486540454353119</v>
+        <v>0.1507718727627089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2343560789211125</v>
+        <v>0.2357359203944675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -1433,19 +1433,19 @@
         <v>96360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78878</v>
+        <v>79251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113575</v>
+        <v>116049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1492912737784873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1222062212718535</v>
+        <v>0.1227835442969578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1759633004283129</v>
+        <v>0.1797964083930599</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>273748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261211</v>
+        <v>259959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285842</v>
+        <v>284781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8718421769381887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.831915363318336</v>
+        <v>0.8279250623009511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9103595816920307</v>
+        <v>0.9069816129011516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -1483,19 +1483,19 @@
         <v>263943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249490</v>
+        <v>249512</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>278125</v>
+        <v>277925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7963050562627763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7526996642687277</v>
+        <v>0.7527660118149341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.839089800114211</v>
+        <v>0.8384873858554114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -1504,19 +1504,19 @@
         <v>537692</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518731</v>
+        <v>517173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>556060</v>
+        <v>555972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8330512200267396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.803674912164413</v>
+        <v>0.8012600672722336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8615082505044906</v>
+        <v>0.8613720043074098</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>5386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11802</v>
+        <v>10840</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01543201762352708</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00522938392695855</v>
+        <v>0.005224543464355327</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0338114713855907</v>
+        <v>0.03105716713158292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1629,19 +1629,19 @@
         <v>7889</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3946</v>
+        <v>3747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15612</v>
+        <v>14699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02123916221946694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01062362879015022</v>
+        <v>0.01008687010147578</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04202842120872487</v>
+        <v>0.03957111436035782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1650,19 +1650,19 @@
         <v>13276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7337</v>
+        <v>7969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22480</v>
+        <v>22692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01842590871592152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01018294106471579</v>
+        <v>0.01105990760162887</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03120055269745462</v>
+        <v>0.03149461557499802</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>40217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28734</v>
+        <v>29763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53051</v>
+        <v>54775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1152203561952931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08232253720777229</v>
+        <v>0.08526888590390978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1519884498856827</v>
+        <v>0.1569283086179919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1700,19 +1700,19 @@
         <v>59949</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46878</v>
+        <v>47681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75032</v>
+        <v>75602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1613895009537964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1261994498503665</v>
+        <v>0.1283621893390367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2019948587810278</v>
+        <v>0.2035297177030138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1721,19 +1721,19 @@
         <v>100166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82342</v>
+        <v>83489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118514</v>
+        <v>120938</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1390229994655493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1142839799640801</v>
+        <v>0.1158761998609173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1644887839830456</v>
+        <v>0.1678531948139474</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>303441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>289341</v>
+        <v>288711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>314899</v>
+        <v>314361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8693476261811798</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8289533643547891</v>
+        <v>0.8271491841168258</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9021754948910073</v>
+        <v>0.9006352830774982</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>314</v>
@@ -1771,19 +1771,19 @@
         <v>303617</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>288206</v>
+        <v>287816</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>317196</v>
+        <v>316788</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8173713368267367</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7758809951827476</v>
+        <v>0.7748326958320841</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8539273208768399</v>
+        <v>0.8528270787697276</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>622</v>
@@ -1792,19 +1792,19 @@
         <v>607058</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>587058</v>
+        <v>584055</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>625670</v>
+        <v>623116</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8425510918185292</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8147918357057443</v>
+        <v>0.8106244650880031</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8683835975380233</v>
+        <v>0.8648379757917058</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>13150</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7804</v>
+        <v>7939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21470</v>
+        <v>21902</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06468107866680167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0383865943487909</v>
+        <v>0.03905136212966257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1056013527564128</v>
+        <v>0.1077292758158218</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1917,19 +1917,19 @@
         <v>15779</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8959</v>
+        <v>8785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25548</v>
+        <v>24990</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07634743942490653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0433484748832719</v>
+        <v>0.04250743986525861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1236169394033711</v>
+        <v>0.1209165722325875</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -1938,19 +1938,19 @@
         <v>28929</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19571</v>
+        <v>20148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40054</v>
+        <v>39632</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07056214483237547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04773695567486511</v>
+        <v>0.04914420817033907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0976958344826783</v>
+        <v>0.09666666606520907</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>38335</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27521</v>
+        <v>28033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50658</v>
+        <v>50830</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1885569237118176</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1353674773306581</v>
+        <v>0.1378831956634894</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2491689252344283</v>
+        <v>0.2500144134927083</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -1988,19 +1988,19 @@
         <v>45418</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34470</v>
+        <v>34545</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57913</v>
+        <v>58038</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2197555130458053</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1667836725758221</v>
+        <v>0.1671485152379833</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2802138873999957</v>
+        <v>0.2808194499113023</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -2009,19 +2009,19 @@
         <v>83753</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68455</v>
+        <v>68198</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102120</v>
+        <v>99396</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2042842762213205</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1669699820824602</v>
+        <v>0.1663440096967168</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2490851280489777</v>
+        <v>0.2424396359446408</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>151823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139008</v>
+        <v>137908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164607</v>
+        <v>163627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7467619976213807</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6837328361864451</v>
+        <v>0.6783211718661879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8096429757551438</v>
+        <v>0.8048216198759288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>140</v>
@@ -2059,19 +2059,19 @@
         <v>145477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131556</v>
+        <v>130377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157699</v>
+        <v>158063</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7038970475292882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6365397571613074</v>
+        <v>0.6308344036180419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.76303453567556</v>
+        <v>0.7647917258643325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>293</v>
@@ -2080,19 +2080,19 @@
         <v>297300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>277733</v>
+        <v>278836</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>315388</v>
+        <v>314252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7251535789463041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6774269112805974</v>
+        <v>0.6801172247982999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7692716757170143</v>
+        <v>0.7665024162466988</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>9490</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4547</v>
+        <v>4859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16541</v>
+        <v>16675</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03529598939374898</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01691012780803818</v>
+        <v>0.01807234933498179</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06151893159084284</v>
+        <v>0.06201707089738577</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2205,19 +2205,19 @@
         <v>5134</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1846</v>
+        <v>1859</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11243</v>
+        <v>11787</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01858889758927963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006683095861479058</v>
+        <v>0.006731420770474451</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04071244062551355</v>
+        <v>0.04268343962297772</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2226,19 +2226,19 @@
         <v>14624</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8776</v>
+        <v>8549</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23806</v>
+        <v>24085</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02683081902683226</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01610217928923938</v>
+        <v>0.01568588591541376</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04367729285580033</v>
+        <v>0.04418962037711091</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>33307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24454</v>
+        <v>24762</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45622</v>
+        <v>46150</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1238761047096958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09094954753188145</v>
+        <v>0.09209440198096266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1696777603002203</v>
+        <v>0.1716390102018632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2276,19 +2276,19 @@
         <v>60606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47733</v>
+        <v>46946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76214</v>
+        <v>75058</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2194592436114554</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1728437668703335</v>
+        <v>0.1699939332243567</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2759769819142779</v>
+        <v>0.2717931202556203</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -2297,19 +2297,19 @@
         <v>93913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76117</v>
+        <v>76838</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110841</v>
+        <v>113166</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1723062901948566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1396552318430349</v>
+        <v>0.1409771078240144</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2033636067064241</v>
+        <v>0.207628784495262</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>226079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>213093</v>
+        <v>213253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235901</v>
+        <v>236268</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8408279058965552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7925287064803701</v>
+        <v>0.7931264467786029</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8773575321133561</v>
+        <v>0.8787227051009858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>205</v>
@@ -2347,19 +2347,19 @@
         <v>210421</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194885</v>
+        <v>193957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223741</v>
+        <v>223619</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.761951858799265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7056957247332768</v>
+        <v>0.7023359414930139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8101862878926483</v>
+        <v>0.8097458424037239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>425</v>
@@ -2368,19 +2368,19 @@
         <v>436501</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>418857</v>
+        <v>417224</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>454411</v>
+        <v>455590</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8008628907783112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7684910804584814</v>
+        <v>0.7654948876460186</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8337240834978153</v>
+        <v>0.8358872688924774</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>20060</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12039</v>
+        <v>12711</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30999</v>
+        <v>31424</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0331032722564013</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01986722646695243</v>
+        <v>0.02097629445187857</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05115613495849881</v>
+        <v>0.05185699176002254</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2493,19 +2493,19 @@
         <v>14503</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8464</v>
+        <v>8564</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23460</v>
+        <v>22926</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02284517634967802</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01333221835234753</v>
+        <v>0.01348969407632283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03695455427616308</v>
+        <v>0.0361134343628382</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -2514,19 +2514,19 @@
         <v>34562</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24511</v>
+        <v>24269</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48096</v>
+        <v>47824</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02785494996306384</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01975447353585653</v>
+        <v>0.01955944080175542</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0387622420461888</v>
+        <v>0.03854339193807795</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>73819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>59111</v>
+        <v>58046</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>91867</v>
+        <v>92167</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1218188402240603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09754728351291578</v>
+        <v>0.09579064357198032</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.151603538139637</v>
+        <v>0.1520981259402143</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>130</v>
@@ -2564,19 +2564,19 @@
         <v>133362</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>116463</v>
+        <v>112349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>154505</v>
+        <v>152632</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2100768281306293</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1834572041489234</v>
+        <v>0.1769756861968723</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2433821270606556</v>
+        <v>0.2404319338489145</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>203</v>
@@ -2585,19 +2585,19 @@
         <v>207181</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>180023</v>
+        <v>182538</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>235808</v>
+        <v>234208</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1669740395619377</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1450866797572089</v>
+        <v>0.1471136130611592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1900454343829412</v>
+        <v>0.1887565981777607</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>512093</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>493093</v>
+        <v>492707</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>529686</v>
+        <v>528844</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8450778875195384</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8137245125601537</v>
+        <v>0.8130866335205666</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8741118829083624</v>
+        <v>0.8727212022616138</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>473</v>
@@ -2635,19 +2635,19 @@
         <v>486960</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>465386</v>
+        <v>466219</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>504694</v>
+        <v>506886</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7670779955196927</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7330935850467505</v>
+        <v>0.7344063222005536</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7950122929241786</v>
+        <v>0.7984661233885383</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>969</v>
@@ -2656,19 +2656,19 @@
         <v>999053</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>970309</v>
+        <v>971171</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1028021</v>
+        <v>1025297</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8051710104749984</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7820049458302728</v>
+        <v>0.7826996342370117</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8285175185590226</v>
+        <v>0.8263215733749262</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>49551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37469</v>
+        <v>36912</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66623</v>
+        <v>65521</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06818793121362474</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05156138526996612</v>
+        <v>0.05079532434855401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09168003200884832</v>
+        <v>0.09016408924527421</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2781,19 +2781,19 @@
         <v>56168</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42801</v>
+        <v>43750</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72872</v>
+        <v>74114</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07232647612605589</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05511320974788993</v>
+        <v>0.05633622608259081</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09383613871643549</v>
+        <v>0.09543497747492022</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>98</v>
@@ -2802,19 +2802,19 @@
         <v>105719</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86575</v>
+        <v>84423</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>125487</v>
+        <v>127509</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07032590288388915</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05759086919423804</v>
+        <v>0.05615933278185938</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08347579889902904</v>
+        <v>0.08482096627812098</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>114877</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>96616</v>
+        <v>95054</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>138478</v>
+        <v>137053</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1580834471270456</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1329550741896516</v>
+        <v>0.1308052750849671</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.190561642592205</v>
+        <v>0.1886005188964164</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>120</v>
@@ -2852,19 +2852,19 @@
         <v>128696</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>108190</v>
+        <v>110472</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>152069</v>
+        <v>150624</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1657187170767541</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1393130789218694</v>
+        <v>0.1422520575696301</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1958151052118215</v>
+        <v>0.1939544502060306</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>235</v>
@@ -2873,19 +2873,19 @@
         <v>243573</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>215409</v>
+        <v>215450</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>274848</v>
+        <v>273757</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1620278264180048</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1432930330146292</v>
+        <v>0.1433201744865867</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.18283243038997</v>
+        <v>0.1821066455955115</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>562257</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>536110</v>
+        <v>538442</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>584047</v>
+        <v>584823</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7737286216593297</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7377479351377478</v>
+        <v>0.7409567491112412</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8037136455517492</v>
+        <v>0.8047823713305143</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>568</v>
@@ -2923,19 +2923,19 @@
         <v>591729</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>567571</v>
+        <v>566172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>616282</v>
+        <v>613541</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7619548067971901</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7308468801846311</v>
+        <v>0.7290460688655673</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7935715677531818</v>
+        <v>0.7900420445221222</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1124</v>
@@ -2944,19 +2944,19 @@
         <v>1153986</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1120173</v>
+        <v>1120007</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1187371</v>
+        <v>1187884</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7676462706981061</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7451536636857357</v>
+        <v>0.7450434837881348</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.789854607615961</v>
+        <v>0.7901960889285713</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>140389</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>119124</v>
+        <v>119409</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>165854</v>
+        <v>165409</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04346939335260831</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03688507039816613</v>
+        <v>0.03697328042468311</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05135437130685597</v>
+        <v>0.05121655572587894</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>123</v>
@@ -3069,19 +3069,19 @@
         <v>131255</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>110063</v>
+        <v>109600</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>154682</v>
+        <v>156552</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03909714868659508</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03278480212470043</v>
+        <v>0.03264672684628046</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04607550598782015</v>
+        <v>0.0466326965748675</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>263</v>
@@ -3090,19 +3090,19 @@
         <v>271643</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>239535</v>
+        <v>239990</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>305368</v>
+        <v>304181</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04124094320131146</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03636625373585536</v>
+        <v>0.03643524583728543</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04636106688353403</v>
+        <v>0.04618079150394033</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>457990</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>420346</v>
+        <v>417975</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>497368</v>
+        <v>499827</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1418098375835028</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1301541261399574</v>
+        <v>0.129419714805456</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1540027379720045</v>
+        <v>0.1547639888489108</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>656</v>
@@ -3140,19 +3140,19 @@
         <v>675745</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>623225</v>
+        <v>633201</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>721607</v>
+        <v>726327</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2012860747920737</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1856418382496907</v>
+        <v>0.1886133619344199</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2149470819199793</v>
+        <v>0.2163529258835915</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1102</v>
@@ -3161,19 +3161,19 @@
         <v>1133735</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1073359</v>
+        <v>1075657</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1198301</v>
+        <v>1196816</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1721237472410019</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1629574546001714</v>
+        <v>0.1633064173849979</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1819261396385817</v>
+        <v>0.1817006955095732</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>2631226</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2496</v>
@@ -3211,19 +3211,19 @@
         <v>2550138</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5076</v>
@@ -3232,19 +3232,19 @@
         <v>5181365</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>15273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9117</v>
+        <v>9039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23686</v>
+        <v>22926</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05204848590092955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03107143320704158</v>
+        <v>0.03080607640419791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0807213092753173</v>
+        <v>0.07813182832433185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3601,19 +3601,19 @@
         <v>14061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7558</v>
+        <v>7686</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22766</v>
+        <v>23543</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04911925441330644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02640346150849622</v>
+        <v>0.02684831346940062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07952811276542991</v>
+        <v>0.08224304178385218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3622,19 +3622,19 @@
         <v>29334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19363</v>
+        <v>20192</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40731</v>
+        <v>40604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05060197694158189</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0334020295295214</v>
+        <v>0.03483257558951924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0702627321026041</v>
+        <v>0.07004463988934748</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>61805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46864</v>
+        <v>48383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77509</v>
+        <v>77356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2106293720454404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1597112996401609</v>
+        <v>0.1648861151853768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2641481587680862</v>
+        <v>0.263626410438478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -3672,19 +3672,19 @@
         <v>88597</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69992</v>
+        <v>72205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107007</v>
+        <v>105882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3094960075217216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2445035769747079</v>
+        <v>0.2522324744716998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3738068126102874</v>
+        <v>0.3698772532148783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -3693,19 +3693,19 @@
         <v>150402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130857</v>
+        <v>126918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173490</v>
+        <v>173544</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2594515544510532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.225735103029951</v>
+        <v>0.2189402633660751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2992791808994773</v>
+        <v>0.2993715131108253</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>216352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>200752</v>
+        <v>201276</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>232422</v>
+        <v>231200</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.73732214205363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6841553079353151</v>
+        <v>0.6859411750163679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7920882349950361</v>
+        <v>0.7879230118094694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -3743,19 +3743,19 @@
         <v>183605</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165615</v>
+        <v>165198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>202046</v>
+        <v>199439</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.641384738064972</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5785402301767837</v>
+        <v>0.5770831351352003</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7058055993501684</v>
+        <v>0.6966997447455288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>369</v>
@@ -3764,19 +3764,19 @@
         <v>399957</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>374746</v>
+        <v>374710</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>422190</v>
+        <v>424271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.689946468607365</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6464566056984221</v>
+        <v>0.6463938152399752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7282996646881607</v>
+        <v>0.7318894863356841</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>30947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21476</v>
+        <v>20611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44312</v>
+        <v>44421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06159210948544618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04274220384417567</v>
+        <v>0.04102093254969911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08819164388498947</v>
+        <v>0.08840875080166188</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -3889,19 +3889,19 @@
         <v>36142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25548</v>
+        <v>25069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50899</v>
+        <v>50704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06900460339105599</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04877841174026981</v>
+        <v>0.04786329675453375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0971793748814897</v>
+        <v>0.09680641174512152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -3910,19 +3910,19 @@
         <v>67089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50024</v>
+        <v>52840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>85379</v>
+        <v>86029</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06537532574711076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04874583697557822</v>
+        <v>0.05148978569695722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08319736259915486</v>
+        <v>0.08383091119782272</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>108513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89870</v>
+        <v>90077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127454</v>
+        <v>129833</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2159659528993881</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1788620132262843</v>
+        <v>0.1792743301922597</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2536643668486175</v>
+        <v>0.2583984007503686</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>135</v>
@@ -3960,19 +3960,19 @@
         <v>148150</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>125348</v>
+        <v>126886</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>171381</v>
+        <v>170662</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2828566748307512</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.239321689164739</v>
+        <v>0.2422579619922074</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3272095024017273</v>
+        <v>0.3258372162532556</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>233</v>
@@ -3981,19 +3981,19 @@
         <v>256663</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>229378</v>
+        <v>228103</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>290039</v>
+        <v>285625</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2501058888221276</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2235178257111367</v>
+        <v>0.2222756610348168</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.282629327421295</v>
+        <v>0.2783281480875593</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>362993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>342360</v>
+        <v>338601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>384107</v>
+        <v>382098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7224419376151657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6813778837502958</v>
+        <v>0.6738954407009009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7644626094916105</v>
+        <v>0.7604643397085411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -4031,19 +4031,19 @@
         <v>339472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315218</v>
+        <v>314732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>364727</v>
+        <v>360442</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6481387217781928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6018303970602987</v>
+        <v>0.6009029702744121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6963552631085257</v>
+        <v>0.688175383308548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>657</v>
@@ -4052,19 +4052,19 @@
         <v>702465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>670364</v>
+        <v>670097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>733792</v>
+        <v>731437</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6845187854307616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6532377808741631</v>
+        <v>0.6529768114678225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7150445854709587</v>
+        <v>0.7127500400593277</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>31247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21077</v>
+        <v>21115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44373</v>
+        <v>44851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09732972639263421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06565265024254516</v>
+        <v>0.06577153926977392</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1382170395005922</v>
+        <v>0.1397055740509483</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4177,19 +4177,19 @@
         <v>23353</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15302</v>
+        <v>15172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34101</v>
+        <v>34653</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06847988824691661</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04487018208303916</v>
+        <v>0.04449124553770333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.099997911040174</v>
+        <v>0.1016148561058605</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -4198,19 +4198,19 @@
         <v>54600</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41308</v>
+        <v>41712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71273</v>
+        <v>71198</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08246949308988756</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06239284552294787</v>
+        <v>0.06300380463327958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1076536875011013</v>
+        <v>0.1075402807159604</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>65232</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52085</v>
+        <v>50643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80344</v>
+        <v>79816</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2031882774491791</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.162236904335095</v>
+        <v>0.1577472453026057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2502608033164055</v>
+        <v>0.248616041574735</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -4248,19 +4248,19 @@
         <v>87459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72255</v>
+        <v>72087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104154</v>
+        <v>104628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.256462992250614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2118782554959164</v>
+        <v>0.2113869158160746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3054178448244679</v>
+        <v>0.3068075634742742</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -4269,19 +4269,19 @@
         <v>152691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129781</v>
+        <v>132320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173004</v>
+        <v>174209</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2306294952157379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1960260817021265</v>
+        <v>0.1998605369916407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2613112611456254</v>
+        <v>0.2631318297255442</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>224562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207819</v>
+        <v>206462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240772</v>
+        <v>240278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6994819961581866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6473292348266789</v>
+        <v>0.6431028546847339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7499745905549445</v>
+        <v>0.7484373758537651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>211</v>
@@ -4319,19 +4319,19 @@
         <v>230208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>210866</v>
+        <v>212381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246597</v>
+        <v>247046</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6750571195024694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.618339644864017</v>
+        <v>0.6227813543243039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7231159326412725</v>
+        <v>0.724433411826232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -4340,19 +4340,19 @@
         <v>454770</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>430274</v>
+        <v>430243</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>478922</v>
+        <v>478094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6869010116943746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6499015296212898</v>
+        <v>0.6498552271931873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7233814955633081</v>
+        <v>0.7221309568199867</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>15635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8329</v>
+        <v>9052</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26023</v>
+        <v>24856</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04180803825434995</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02227034814091042</v>
+        <v>0.02420511461259037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06958245829923754</v>
+        <v>0.06646186436486118</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>16427</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9952</v>
+        <v>10320</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24958</v>
+        <v>26320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04236113805538792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0256638649521332</v>
+        <v>0.02661276730567249</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06436136627718371</v>
+        <v>0.067874292961179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -4486,19 +4486,19 @@
         <v>32062</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22528</v>
+        <v>22176</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46092</v>
+        <v>45004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0420895968229122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02957330576766219</v>
+        <v>0.02911165110148098</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06050775991237862</v>
+        <v>0.05907954793146455</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>103967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87892</v>
+        <v>86906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122144</v>
+        <v>124663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2780010300399927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2350168258936705</v>
+        <v>0.2323813161357174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3266045774698602</v>
+        <v>0.3333386991123828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>149</v>
@@ -4536,19 +4536,19 @@
         <v>156408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>138076</v>
+        <v>136291</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177056</v>
+        <v>176315</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.403342215981055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3560676390987673</v>
+        <v>0.3514662013203984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4565888007913846</v>
+        <v>0.4546779603954083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>243</v>
@@ -4557,19 +4557,19 @@
         <v>260375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>233689</v>
+        <v>233676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285495</v>
+        <v>286874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3418066666163089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3067745899051837</v>
+        <v>0.306757896864135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.374783377648316</v>
+        <v>0.3765927522223672</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>254379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>235580</v>
+        <v>234893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>271898</v>
+        <v>272933</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6801909317056574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6299233614478318</v>
+        <v>0.6280859056312397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7270360429361383</v>
+        <v>0.7298030291699056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -4607,19 +4607,19 @@
         <v>214945</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>195067</v>
+        <v>194540</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>233012</v>
+        <v>236368</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5542966459635571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5030358980071588</v>
+        <v>0.5016786597467037</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.600887475480764</v>
+        <v>0.6095420368961064</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>441</v>
@@ -4628,19 +4628,19 @@
         <v>469324</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>441979</v>
+        <v>441680</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>495937</v>
+        <v>496732</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6161037365607789</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5802074864091831</v>
+        <v>0.579814416676078</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6510400211397821</v>
+        <v>0.6520842637338267</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>13183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6796</v>
+        <v>7622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22216</v>
+        <v>22970</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06200290157297953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03196217465745576</v>
+        <v>0.03584715838110378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1044887841469579</v>
+        <v>0.1080351808840702</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4753,19 +4753,19 @@
         <v>12085</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6096</v>
+        <v>6985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20672</v>
+        <v>21036</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0552569820977293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02787463414797791</v>
+        <v>0.03193847249138062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09452178879294414</v>
+        <v>0.0961886712777595</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -4774,19 +4774,19 @@
         <v>25268</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16727</v>
+        <v>16881</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36165</v>
+        <v>36969</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05858237694367942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03878125184787246</v>
+        <v>0.03913786869306833</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08384710878079368</v>
+        <v>0.08571097963121273</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>53620</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40410</v>
+        <v>41211</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67120</v>
+        <v>68206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2521875305641487</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1900586511013242</v>
+        <v>0.1938267633768165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3156858215194233</v>
+        <v>0.3207929046613659</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -4824,19 +4824,19 @@
         <v>75991</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60607</v>
+        <v>62468</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>90102</v>
+        <v>90766</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3474647031706449</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2771261580070243</v>
+        <v>0.2856335989709572</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4119881849721902</v>
+        <v>0.4150260620842594</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>121</v>
@@ -4845,19 +4845,19 @@
         <v>129610</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>110005</v>
+        <v>110167</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>148809</v>
+        <v>147365</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3004979079272744</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.255044548086881</v>
+        <v>0.2554198776430323</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3450100194492135</v>
+        <v>0.3416622596661784</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>145815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130751</v>
+        <v>130611</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159413</v>
+        <v>159196</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6858095678628717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6149585491191708</v>
+        <v>0.6142966551110863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7497605526495423</v>
+        <v>0.7487411065956593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>128</v>
@@ -4895,19 +4895,19 @@
         <v>130625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117067</v>
+        <v>115492</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146405</v>
+        <v>144963</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5972783147316258</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5352875209077456</v>
+        <v>0.5280847780161051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6694317467289587</v>
+        <v>0.6628400262286523</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -4916,19 +4916,19 @@
         <v>276440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>256393</v>
+        <v>255547</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>297045</v>
+        <v>296528</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6409197151290462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5944407940074409</v>
+        <v>0.5924794143752082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6886919534935646</v>
+        <v>0.6874932658585067</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>16438</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9621</v>
+        <v>10179</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25716</v>
+        <v>26232</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05999576317595121</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03511391208868052</v>
+        <v>0.03715213102863912</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09386167490384979</v>
+        <v>0.09574394655542305</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -5041,19 +5041,19 @@
         <v>12181</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6194</v>
+        <v>6926</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20152</v>
+        <v>20402</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04350035132098477</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02211721311987286</v>
+        <v>0.02473431254150426</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07196399843161953</v>
+        <v>0.07285729768591957</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -5062,19 +5062,19 @@
         <v>28619</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19377</v>
+        <v>20090</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40003</v>
+        <v>41825</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05165798956853399</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0349749520211018</v>
+        <v>0.03626244854330368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07220562407916195</v>
+        <v>0.07549502988639854</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>52244</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39682</v>
+        <v>38848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64939</v>
+        <v>65818</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.190684198386032</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1448337710491459</v>
+        <v>0.141791297653518</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2370193200771718</v>
+        <v>0.2402285160822093</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -5112,19 +5112,19 @@
         <v>67685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54246</v>
+        <v>53729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82209</v>
+        <v>82387</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2417036128361151</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1937142161762707</v>
+        <v>0.1918672517475401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2935716564483032</v>
+        <v>0.2942066130575354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -5133,19 +5133,19 @@
         <v>119928</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101482</v>
+        <v>100355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140589</v>
+        <v>140681</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2164724800614427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1831770205322631</v>
+        <v>0.1811425762756538</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2537660608258907</v>
+        <v>0.253931015322078</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>205299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>190086</v>
+        <v>190514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>218972</v>
+        <v>220108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7493200384380169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6937924303675335</v>
+        <v>0.6953533344680944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7992233273715181</v>
+        <v>0.8033681408157803</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>192</v>
@@ -5183,19 +5183,19 @@
         <v>200165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>185323</v>
+        <v>184531</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>214512</v>
+        <v>215052</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7147960358429002</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6617939457803963</v>
+        <v>0.6589658193848394</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7660283538469024</v>
+        <v>0.7679588708648154</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>386</v>
@@ -5204,19 +5204,19 @@
         <v>405465</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>383700</v>
+        <v>381835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>424923</v>
+        <v>425968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7318695303700233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6925835524953539</v>
+        <v>0.6892173848759233</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7669931679708611</v>
+        <v>0.7688791541737047</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>24369</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16492</v>
+        <v>15360</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37730</v>
+        <v>37575</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03693006929488943</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02499249319163923</v>
+        <v>0.02327708410683606</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05717749610981473</v>
+        <v>0.05694160564707434</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -5329,19 +5329,19 @@
         <v>28728</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19254</v>
+        <v>19282</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42359</v>
+        <v>42156</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04147899046390734</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0278004952551275</v>
+        <v>0.02784085170003963</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06115968204470293</v>
+        <v>0.0608671849987654</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -5350,19 +5350,19 @@
         <v>53097</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39200</v>
+        <v>38187</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>70193</v>
+        <v>69902</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03925954469461502</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0289838352146967</v>
+        <v>0.02823479780439968</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05189980439339348</v>
+        <v>0.05168445843225081</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>115756</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97169</v>
+        <v>97819</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138461</v>
+        <v>137728</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1754208627425123</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1472523480335244</v>
+        <v>0.1482381403864023</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2098274817237031</v>
+        <v>0.2087167068463653</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>161</v>
@@ -5400,19 +5400,19 @@
         <v>171668</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>149460</v>
+        <v>150107</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>197984</v>
+        <v>194980</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2478624197795032</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2157982543106081</v>
+        <v>0.2167324591206869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2858590213168214</v>
+        <v>0.2815216578231167</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>272</v>
@@ -5421,19 +5421,19 @@
         <v>287424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>254782</v>
+        <v>255518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>317407</v>
+        <v>319392</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2125177520411942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1883826969074841</v>
+        <v>0.1889272954611223</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2346869882554724</v>
+        <v>0.2361542820341428</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>519752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>495644</v>
+        <v>494914</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>540463</v>
+        <v>539706</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7876490679625983</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7511152192755118</v>
+        <v>0.7500086448053762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8190348686497726</v>
+        <v>0.8178870376888505</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>449</v>
@@ -5471,19 +5471,19 @@
         <v>492196</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>463454</v>
+        <v>466237</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>514670</v>
+        <v>515965</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7106585897565895</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6691592599839929</v>
+        <v>0.6731771519536293</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7431069015719155</v>
+        <v>0.7449762077291598</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>932</v>
@@ -5492,19 +5492,19 @@
         <v>1011949</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>980377</v>
+        <v>974722</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1045859</v>
+        <v>1044334</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7482227032641908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7248789198420587</v>
+        <v>0.720697771485555</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7732957928028605</v>
+        <v>0.7721679983278034</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>46344</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33892</v>
+        <v>32462</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61629</v>
+        <v>62382</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05970769197430519</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04366537255019412</v>
+        <v>0.04182235237402023</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07940084483296661</v>
+        <v>0.08037141961622771</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -5617,19 +5617,19 @@
         <v>38106</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27394</v>
+        <v>26656</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53480</v>
+        <v>51340</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04653887245556036</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03345618524292879</v>
+        <v>0.03255468855256835</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06531440507816656</v>
+        <v>0.06270136979946435</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>76</v>
@@ -5638,19 +5638,19 @@
         <v>84450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>66679</v>
+        <v>66881</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>105620</v>
+        <v>105749</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05294729442474538</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04180556216883073</v>
+        <v>0.04193197372566285</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06622008340319864</v>
+        <v>0.06630106885606342</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>129946</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>107315</v>
+        <v>110048</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>150966</v>
+        <v>151128</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1674182787911224</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1382610139951318</v>
+        <v>0.1417814722296358</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1944991923585503</v>
+        <v>0.1947077306441303</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>160</v>
@@ -5688,19 +5688,19 @@
         <v>176721</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>155635</v>
+        <v>151786</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>206483</v>
+        <v>201978</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2158266846344484</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1900756029938162</v>
+        <v>0.1853738333397827</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2521745158736369</v>
+        <v>0.2466732927968691</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>280</v>
@@ -5709,19 +5709,19 @@
         <v>306667</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>275973</v>
+        <v>274176</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>340735</v>
+        <v>337862</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1922694104947264</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1730252769733533</v>
+        <v>0.1718987823693791</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2136287583947664</v>
+        <v>0.2118277870043046</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>599887</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>575585</v>
+        <v>574836</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>623175</v>
+        <v>622465</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7728740292345724</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.741563783022662</v>
+        <v>0.7405992645912426</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8028777765170305</v>
+        <v>0.8019625541727503</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>557</v>
@@ -5759,19 +5759,19 @@
         <v>603981</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>576501</v>
+        <v>574532</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>628275</v>
+        <v>628687</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7376344429099913</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7040731505102317</v>
+        <v>0.7016688011371006</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7673039222453576</v>
+        <v>0.7678072161423501</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1110</v>
@@ -5780,19 +5780,19 @@
         <v>1203868</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1164138</v>
+        <v>1167707</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1236879</v>
+        <v>1239363</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7547832950805282</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7298739115263841</v>
+        <v>0.7321114626465398</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7754799904544651</v>
+        <v>0.777037394786171</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>193436</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>167836</v>
+        <v>166965</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>224803</v>
+        <v>220748</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05666685191426234</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04916745598885154</v>
+        <v>0.04891219043333451</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0658557703533245</v>
+        <v>0.06466804267172076</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>166</v>
@@ -5905,19 +5905,19 @@
         <v>181084</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>155318</v>
+        <v>154626</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>209441</v>
+        <v>209095</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05102443279996165</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04376429630915099</v>
+        <v>0.04356933052386511</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05901471200550135</v>
+        <v>0.05891726800035291</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>343</v>
@@ -5926,19 +5926,19 @@
         <v>374519</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>337527</v>
+        <v>339759</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>418115</v>
+        <v>418637</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05379077911686167</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0484776863338004</v>
+        <v>0.04879835454065717</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06005228928170886</v>
+        <v>0.06012730750834573</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>691083</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>645583</v>
+        <v>642796</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>738593</v>
+        <v>739256</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2024522529157267</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1891231249454134</v>
+        <v>0.1883065840777239</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.216370292729986</v>
+        <v>0.2165646498750727</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>904</v>
@@ -5976,19 +5976,19 @@
         <v>972678</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>921079</v>
+        <v>921950</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1029614</v>
+        <v>1029791</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2740741121950195</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2595349819204705</v>
+        <v>0.2597803826695407</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2901171298721976</v>
+        <v>0.2901672304575391</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1552</v>
@@ -5997,19 +5997,19 @@
         <v>1663760</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1587399</v>
+        <v>1595119</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1735360</v>
+        <v>1741064</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2389595872699495</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2279921371496702</v>
+        <v>0.2291009560152743</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2492431291175898</v>
+        <v>0.2500623728570242</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>2529041</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2219</v>
@@ -6047,19 +6047,19 @@
         <v>2395197</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4591</v>
@@ -6068,19 +6068,19 @@
         <v>4924238</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>13912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7640</v>
+        <v>7819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22584</v>
+        <v>23413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04761402625100192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02615003719350455</v>
+        <v>0.02676023773172983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07729719436250182</v>
+        <v>0.08013446692468637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -6437,19 +6437,19 @@
         <v>13310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6663</v>
+        <v>7741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21632</v>
+        <v>23118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04695046030709617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02350444353419117</v>
+        <v>0.0273072352558462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0763076352799167</v>
+        <v>0.08155161624962859</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -6458,19 +6458,19 @@
         <v>27221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17789</v>
+        <v>17956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39580</v>
+        <v>38115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04728725285354765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03090174189762079</v>
+        <v>0.03119219250313209</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06875632909568639</v>
+        <v>0.06621187447388066</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>81663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66419</v>
+        <v>65826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100524</v>
+        <v>97463</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2795027612074549</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2273279132196879</v>
+        <v>0.2252958408025238</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3440551047987956</v>
+        <v>0.3335800527123905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -6508,19 +6508,19 @@
         <v>90251</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75545</v>
+        <v>76117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107653</v>
+        <v>106540</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3183657829605752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2664888202297809</v>
+        <v>0.2685069238357569</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3797514625405187</v>
+        <v>0.375827258615332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>160</v>
@@ -6529,19 +6529,19 @@
         <v>171914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151355</v>
+        <v>151240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194975</v>
+        <v>195022</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2986408766732029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2629266855665572</v>
+        <v>0.2627272010994425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3387000709656685</v>
+        <v>0.3387820683577528</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>196599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>177978</v>
+        <v>179344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>212396</v>
+        <v>212071</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6728832125415432</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6091501881528409</v>
+        <v>0.6138249731846428</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7269512407704307</v>
+        <v>0.7258373392610705</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -6579,19 +6579,19 @@
         <v>179921</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163398</v>
+        <v>163004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>196232</v>
+        <v>195732</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6346837567323287</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5763958930224634</v>
+        <v>0.5750078621149394</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6922192262720004</v>
+        <v>0.6904563756890139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>350</v>
@@ -6600,19 +6600,19 @@
         <v>376520</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>353033</v>
+        <v>353121</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>399353</v>
+        <v>399267</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6540718704732494</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.613270888729887</v>
+        <v>0.613423683192897</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6937356478842605</v>
+        <v>0.6935853907273873</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>25773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17530</v>
+        <v>17917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37082</v>
+        <v>37173</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0512809216480246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03488131295667161</v>
+        <v>0.03565106643092198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07378307013641892</v>
+        <v>0.07396537051544561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -6725,19 +6725,19 @@
         <v>18256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10463</v>
+        <v>11258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28413</v>
+        <v>28064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03490071215372428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02000292400334923</v>
+        <v>0.02152210753215583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05431777360403091</v>
+        <v>0.05365064019124052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -6746,19 +6746,19 @@
         <v>44029</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32508</v>
+        <v>32386</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57833</v>
+        <v>58967</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04292705112881985</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03169519323684223</v>
+        <v>0.03157625767132267</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0563862917217331</v>
+        <v>0.0574920288321575</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>106585</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89415</v>
+        <v>88505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>126715</v>
+        <v>126180</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2120785689264597</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.177914524470296</v>
+        <v>0.17610340743967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2521310890546131</v>
+        <v>0.2510678199568941</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>152</v>
@@ -6796,19 +6796,19 @@
         <v>174530</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>151979</v>
+        <v>153285</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>197073</v>
+        <v>198203</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3336559595229388</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2905445337541099</v>
+        <v>0.2930409761016655</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3767529997710729</v>
+        <v>0.3789118280679935</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>254</v>
@@ -6817,19 +6817,19 @@
         <v>281115</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>250108</v>
+        <v>251792</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>311779</v>
+        <v>310248</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2740827685344789</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2438508283573628</v>
+        <v>0.2454926125353832</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3039791717356972</v>
+        <v>0.3024860597913325</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>370217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>350151</v>
+        <v>348406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>389389</v>
+        <v>390054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7366405094255157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6967131242847912</v>
+        <v>0.6932423254401519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7747886351041979</v>
+        <v>0.7761114225174665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>315</v>
@@ -6867,19 +6867,19 @@
         <v>330298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>306445</v>
+        <v>306495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>353187</v>
+        <v>351344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6314433283233369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5858436818734098</v>
+        <v>0.585937633596974</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6752018215511267</v>
+        <v>0.6716783660352028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>661</v>
@@ -6888,19 +6888,19 @@
         <v>700515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>670303</v>
+        <v>670715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>729554</v>
+        <v>732774</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6829901803367013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6535337622435087</v>
+        <v>0.653936095360402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7113031242560893</v>
+        <v>0.7144422907375083</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>3220</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1007</v>
+        <v>748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8166</v>
+        <v>8337</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01010905953968359</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003162051118355786</v>
+        <v>0.002347604794413622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02563446849707785</v>
+        <v>0.02617140424349824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -7013,19 +7013,19 @@
         <v>8963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4040</v>
+        <v>3969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16036</v>
+        <v>15445</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02665091164527908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01201154509728841</v>
+        <v>0.01180248017300667</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04768174598101423</v>
+        <v>0.04592598588516529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -7034,19 +7034,19 @@
         <v>12183</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6893</v>
+        <v>6849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19900</v>
+        <v>19759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01860408877616404</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01052598146030155</v>
+        <v>0.0104580305536499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03038768448804818</v>
+        <v>0.03017192828835838</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>37628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28231</v>
+        <v>26988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51518</v>
+        <v>50114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1181161811815316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08862059970054108</v>
+        <v>0.08471812720609714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1617187066700769</v>
+        <v>0.1573106417416423</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -7084,19 +7084,19 @@
         <v>63887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50158</v>
+        <v>50539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79286</v>
+        <v>79409</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1899659571053535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1491436912157292</v>
+        <v>0.1502743312518704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2357521878543266</v>
+        <v>0.2361185312351857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -7105,19 +7105,19 @@
         <v>101515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83044</v>
+        <v>84701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120889</v>
+        <v>122651</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1550144645908587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1268092489772451</v>
+        <v>0.1293398479585142</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1845994141166615</v>
+        <v>0.1872891210189363</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>277717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264050</v>
+        <v>265172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>287356</v>
+        <v>288532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8717747592787848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8288734215336391</v>
+        <v>0.8323956325764046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9020335402020827</v>
+        <v>0.9057246582681397</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -7155,19 +7155,19 @@
         <v>263459</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247458</v>
+        <v>247917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>277522</v>
+        <v>278037</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7833831312493674</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7358039820160134</v>
+        <v>0.7371716133891262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8252000616087687</v>
+        <v>0.8267296965271116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>554</v>
@@ -7176,19 +7176,19 @@
         <v>541176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>520253</v>
+        <v>520031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>559220</v>
+        <v>559718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8263814466329773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7944314684891846</v>
+        <v>0.7940927580333942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8539346809425148</v>
+        <v>0.8546956739544954</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>19158</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11795</v>
+        <v>12053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29417</v>
+        <v>29845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05189807611437638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03195202356342557</v>
+        <v>0.03265168662782873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07968855660070874</v>
+        <v>0.08084645066078903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -7301,19 +7301,19 @@
         <v>23352</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14699</v>
+        <v>15296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35785</v>
+        <v>34774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06113783207788866</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03848230335673979</v>
+        <v>0.04004504324617097</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09368722008858243</v>
+        <v>0.091040521167399</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -7322,19 +7322,19 @@
         <v>42511</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30760</v>
+        <v>30789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55290</v>
+        <v>55714</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05659675084800525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04095233210241375</v>
+        <v>0.04099080574291782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07361137855391992</v>
+        <v>0.07417512731783601</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>107220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91592</v>
+        <v>89667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125533</v>
+        <v>126677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2904490962674854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2481163222228268</v>
+        <v>0.2428994085207041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3400582645795347</v>
+        <v>0.3431569196863246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -7372,19 +7372,19 @@
         <v>136332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116797</v>
+        <v>117769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>154176</v>
+        <v>157161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3569266356243779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3057811605218224</v>
+        <v>0.3083277252927291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4036418864744442</v>
+        <v>0.411458417095677</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>228</v>
@@ -7393,19 +7393,19 @@
         <v>243552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218023</v>
+        <v>218793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>268556</v>
+        <v>270246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.324254787214686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2902660433717887</v>
+        <v>0.2912911687085348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3575438520085233</v>
+        <v>0.3597939425158324</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>242773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>222765</v>
+        <v>221647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260484</v>
+        <v>261712</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6576528276181381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6034530491989205</v>
+        <v>0.6004242165816425</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7056297066726691</v>
+        <v>0.7089554502984502</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>206</v>
@@ -7443,19 +7443,19 @@
         <v>222277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>203214</v>
+        <v>202078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>242445</v>
+        <v>242112</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5819355322977334</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5320268531996251</v>
+        <v>0.5290520193710337</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6347363156670903</v>
+        <v>0.6338636951394991</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>439</v>
@@ -7464,19 +7464,19 @@
         <v>465050</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>438193</v>
+        <v>437916</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>492150</v>
+        <v>491246</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6191484619373088</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.583392230624166</v>
+        <v>0.5830221537048289</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6552270418638514</v>
+        <v>0.6540234435316246</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>5656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11745</v>
+        <v>11667</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02677972026709985</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00939088186694024</v>
+        <v>0.009409223385194534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0556046829969595</v>
+        <v>0.05523787096428955</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -7589,19 +7589,19 @@
         <v>7379</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3057</v>
+        <v>3187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14218</v>
+        <v>14850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03375551974006596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01398738651577195</v>
+        <v>0.01458176238964321</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06504365481488045</v>
+        <v>0.06793719640451795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -7610,19 +7610,19 @@
         <v>13035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7501</v>
+        <v>7200</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21976</v>
+        <v>21213</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03032739524191312</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01745307768374918</v>
+        <v>0.01675248778823275</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05113037523529632</v>
+        <v>0.04935446274207603</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>10586</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5706</v>
+        <v>5465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19344</v>
+        <v>18470</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05011796950216315</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02701251747949073</v>
+        <v>0.02587538036378863</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09158342492374381</v>
+        <v>0.08744612422018021</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -7660,19 +7660,19 @@
         <v>10931</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4849</v>
+        <v>5873</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18633</v>
+        <v>19064</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05000605331078086</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0221844050873856</v>
+        <v>0.02686647618393528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0852417061627868</v>
+        <v>0.08721462863826562</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -7681,19 +7681,19 @@
         <v>21517</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13735</v>
+        <v>13894</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32277</v>
+        <v>31984</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05006105240284255</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03195644645446807</v>
+        <v>0.03232530399785593</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07509563988292529</v>
+        <v>0.07441510950088429</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>194979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>185831</v>
+        <v>185153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201251</v>
+        <v>201345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.923102310230737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8797946004984316</v>
+        <v>0.8765835267964404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9527988732957696</v>
+        <v>0.9532440434509156</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>205</v>
@@ -7731,19 +7731,19 @@
         <v>200278</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>190905</v>
+        <v>191112</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207466</v>
+        <v>207477</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9162384269491531</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8733597965469426</v>
+        <v>0.8743072360768981</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9491220992917881</v>
+        <v>0.9491729026002366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>401</v>
@@ -7752,19 +7752,19 @@
         <v>395256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>382659</v>
+        <v>382573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>405566</v>
+        <v>405491</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9196115523552443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8903024215950802</v>
+        <v>0.8901015560499469</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9435974349205631</v>
+        <v>0.943422579713324</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>11450</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5877</v>
+        <v>6145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19551</v>
+        <v>19886</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0435162149174641</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02233562419943385</v>
+        <v>0.02335449129804084</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07430214050554161</v>
+        <v>0.07557633292457998</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -7877,19 +7877,19 @@
         <v>9460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4476</v>
+        <v>4335</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20470</v>
+        <v>17634</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03476125050971236</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01644734827788857</v>
+        <v>0.01592725390950223</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07521614043347695</v>
+        <v>0.06479505542197403</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -7898,19 +7898,19 @@
         <v>20910</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13247</v>
+        <v>12858</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31745</v>
+        <v>32259</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03906491006468654</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02474781486366177</v>
+        <v>0.02402128587372039</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05930542259035142</v>
+        <v>0.06026676493149002</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>41114</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30948</v>
+        <v>31087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55166</v>
+        <v>53485</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1562545702486838</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.117617115558399</v>
+        <v>0.118148053368578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2096568408809087</v>
+        <v>0.2032691365090719</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -7948,19 +7948,19 @@
         <v>74367</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59587</v>
+        <v>60450</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88964</v>
+        <v>92129</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.273257316894584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2189508929331304</v>
+        <v>0.2221200312120623</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3268950665852028</v>
+        <v>0.3385234173745855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -7969,19 +7969,19 @@
         <v>115481</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97672</v>
+        <v>96710</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>136596</v>
+        <v>135272</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2157425212758819</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.18247054247359</v>
+        <v>0.1806734072509834</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2551895083179493</v>
+        <v>0.2527155209672436</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>210559</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>194388</v>
+        <v>197826</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>222179</v>
+        <v>222464</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8002292148338521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7387740357032009</v>
+        <v>0.7518391435173295</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.844390431664033</v>
+        <v>0.8454758549951235</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>186</v>
@@ -8019,19 +8019,19 @@
         <v>188323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>172567</v>
+        <v>170855</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>202604</v>
+        <v>202350</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6919814325957037</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6340865928886148</v>
+        <v>0.6277969608519686</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7444567198847752</v>
+        <v>0.7435222771177136</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>392</v>
@@ -8040,19 +8040,19 @@
         <v>398881</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>378399</v>
+        <v>377304</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>418729</v>
+        <v>418467</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7451925686594315</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7069273923005466</v>
+        <v>0.704881726651598</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7822727064762175</v>
+        <v>0.7817826844083325</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>61675</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47207</v>
+        <v>47142</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>77753</v>
+        <v>80247</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09456577955237044</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07238208337311833</v>
+        <v>0.07228320293221081</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1192185420881091</v>
+        <v>0.1230428152606585</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -8165,19 +8165,19 @@
         <v>59561</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>46032</v>
+        <v>45871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>78241</v>
+        <v>76737</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08640283208583972</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06677749560739743</v>
+        <v>0.06654362904618506</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1135013321371955</v>
+        <v>0.1113194483919335</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>111</v>
@@ -8186,19 +8186,19 @@
         <v>121236</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>99222</v>
+        <v>103860</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>143892</v>
+        <v>144684</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09037128350809404</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07396138973282108</v>
+        <v>0.07741903672473167</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1072593350371842</v>
+        <v>0.1078499576853212</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>114553</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>94348</v>
+        <v>96668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135818</v>
+        <v>136770</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.175642943341529</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1446630008496196</v>
+        <v>0.1482204106206642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2082486229379518</v>
+        <v>0.2097079541673695</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>136</v>
@@ -8236,19 +8236,19 @@
         <v>149665</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>128150</v>
+        <v>128048</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>173786</v>
+        <v>174301</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2171136287721882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1859015876833949</v>
+        <v>0.185753548063367</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2521047896473016</v>
+        <v>0.2528517626266698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>236</v>
@@ -8257,19 +8257,19 @@
         <v>264218</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>235398</v>
+        <v>235412</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>297823</v>
+        <v>293651</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1969524797198465</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1754697346711969</v>
+        <v>0.175480328444133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2220019982268545</v>
+        <v>0.2188920283788836</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>475963</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>451777</v>
+        <v>452116</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>498609</v>
+        <v>498524</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7297912771061006</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6927062021311342</v>
+        <v>0.6932264626028068</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7645130231226324</v>
+        <v>0.7643841033763387</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>455</v>
@@ -8307,19 +8307,19 @@
         <v>480115</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>454072</v>
+        <v>456157</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>503651</v>
+        <v>505986</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6964835391419721</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.658703872172607</v>
+        <v>0.6617294633472399</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7306268573792383</v>
+        <v>0.7340133654877193</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>873</v>
@@ -8328,19 +8328,19 @@
         <v>956078</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>921214</v>
+        <v>923258</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>990198</v>
+        <v>989406</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7126762367720595</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6866877442837265</v>
+        <v>0.6882118732265956</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7381102048424603</v>
+        <v>0.7375195310161671</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>43176</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32029</v>
+        <v>31814</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56416</v>
+        <v>57221</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05545412498585585</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04113747302569162</v>
+        <v>0.04086125410901114</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07246002252450663</v>
+        <v>0.07349332441407161</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -8453,19 +8453,19 @@
         <v>23090</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13570</v>
+        <v>13677</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35318</v>
+        <v>35965</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02798539097079146</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01644678015331694</v>
+        <v>0.01657616300786659</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0428057703878981</v>
+        <v>0.04358956099685546</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>63</v>
@@ -8474,19 +8474,19 @@
         <v>66266</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>51269</v>
+        <v>50481</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>83970</v>
+        <v>82865</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04132147900136331</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03196973880992816</v>
+        <v>0.03147813886887928</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05236090118736324</v>
+        <v>0.05167214940719837</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>103252</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>84922</v>
+        <v>87340</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>122650</v>
+        <v>126008</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1326155257843451</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1090727459157698</v>
+        <v>0.1121787716208659</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.157530398908349</v>
+        <v>0.1618421377130168</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>128</v>
@@ -8524,19 +8524,19 @@
         <v>143570</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>122782</v>
+        <v>120284</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>168186</v>
+        <v>166528</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1740053443440122</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1488114455560642</v>
+        <v>0.1457836652370686</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.20384002631698</v>
+        <v>0.2018309932691003</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>225</v>
@@ -8545,19 +8545,19 @@
         <v>246822</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>218393</v>
+        <v>218305</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>276713</v>
+        <v>278702</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.153910560813821</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1361834115627753</v>
+        <v>0.1361282743453668</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1725500733374697</v>
+        <v>0.1737904171560836</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>632155</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>610093</v>
+        <v>609369</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>654424</v>
+        <v>652241</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8119303492297991</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7835940311903445</v>
+        <v>0.7826645544667977</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8405327207299741</v>
+        <v>0.8377277151578379</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>608</v>
@@ -8595,19 +8595,19 @@
         <v>658427</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>631814</v>
+        <v>631148</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>680550</v>
+        <v>682987</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7980092646851964</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7657539235031944</v>
+        <v>0.764947381130095</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8248218817077184</v>
+        <v>0.8277761815547343</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1216</v>
@@ -8616,19 +8616,19 @@
         <v>1290582</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1257473</v>
+        <v>1257700</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1322066</v>
+        <v>1324806</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8047679601848157</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7841220562210144</v>
+        <v>0.7842637571427341</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8244000747913789</v>
+        <v>0.8261087987340413</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>184020</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>156583</v>
+        <v>157155</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>212679</v>
+        <v>210187</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05432187838783927</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04622274945674632</v>
+        <v>0.04639156317275397</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06278189193527625</v>
+        <v>0.06204635234667019</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>146</v>
@@ -8741,19 +8741,19 @@
         <v>163371</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>136436</v>
+        <v>138273</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>188434</v>
+        <v>190139</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04628072567113847</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03865052386572087</v>
+        <v>0.03917079725297443</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0533808102503114</v>
+        <v>0.05386382945752582</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>331</v>
@@ -8762,19 +8762,19 @@
         <v>347391</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>312182</v>
+        <v>314841</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>384016</v>
+        <v>384402</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05021852699250653</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04512873949750372</v>
+        <v>0.04551316076383629</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05551293140386488</v>
+        <v>0.05556883956858965</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>602601</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>562242</v>
+        <v>553753</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>652767</v>
+        <v>651100</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1778852977139783</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.165971386665085</v>
+        <v>0.1634655581113894</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1926939837070596</v>
+        <v>0.1922018101622656</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>771</v>
@@ -8812,19 +8812,19 @@
         <v>843533</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>792706</v>
+        <v>792469</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>890789</v>
+        <v>897270</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2389611383844353</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2245623565584573</v>
+        <v>0.2244954027543817</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.252348126922581</v>
+        <v>0.2541840437883056</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1333</v>
@@ -8833,19 +8833,19 @@
         <v>1446135</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1374955</v>
+        <v>1381458</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1509868</v>
+        <v>1524321</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2090519282787395</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1987621796684801</v>
+        <v>0.1997022646423287</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2182651280749571</v>
+        <v>0.2203544340655041</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>2600963</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2408</v>
@@ -8883,19 +8883,19 @@
         <v>2523098</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4886</v>
@@ -8904,19 +8904,19 @@
         <v>5124061</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>7924</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3918</v>
+        <v>3867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14577</v>
+        <v>13306</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02485091260463223</v>
+        <v>0.02485091260463224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01228944408707359</v>
+        <v>0.01212861509415975</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04571744203929159</v>
+        <v>0.04173293732793272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -9273,19 +9273,19 @@
         <v>8349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4088</v>
+        <v>3898</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17888</v>
+        <v>17186</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0264153844606309</v>
+        <v>0.02641538446063089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0129356378118004</v>
+        <v>0.01233195798549092</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05659744746949641</v>
+        <v>0.05437412206337178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -9294,19 +9294,19 @@
         <v>16272</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10130</v>
+        <v>10491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26262</v>
+        <v>27162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02562971771886724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01595490053049718</v>
+        <v>0.01652409227100074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04136372634041715</v>
+        <v>0.04278111208140392</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>90802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74991</v>
+        <v>75925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108510</v>
+        <v>108340</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2847851369249226</v>
+        <v>0.2847851369249227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2351958316469995</v>
+        <v>0.2381240198834169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3403222080594445</v>
+        <v>0.3397878006645909</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -9344,19 +9344,19 @@
         <v>97990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86442</v>
+        <v>85395</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111600</v>
+        <v>110543</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3100364397333861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.273497733024929</v>
+        <v>0.2701865209345213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.353096467106213</v>
+        <v>0.3497525969121937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -9365,19 +9365,19 @@
         <v>188793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169175</v>
+        <v>167356</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>209189</v>
+        <v>210265</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2973554134006056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2664568724592064</v>
+        <v>0.2635912766335035</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3294801208710187</v>
+        <v>0.3311745626360311</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>220119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>202713</v>
+        <v>202584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>235959</v>
+        <v>235883</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6903639504704451</v>
+        <v>0.6903639504704453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6357740087221148</v>
+        <v>0.6353692449953733</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7400431468208476</v>
+        <v>0.7398036911603779</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -9415,19 +9415,19 @@
         <v>209722</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>196213</v>
+        <v>196738</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221366</v>
+        <v>222903</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.663548175805983</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6208063872636732</v>
+        <v>0.6224677501786589</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7003890583635747</v>
+        <v>0.7052540643312429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>562</v>
@@ -9436,19 +9436,19 @@
         <v>429841</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>408807</v>
+        <v>408885</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>450248</v>
+        <v>451763</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6770148688805272</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6438851404871212</v>
+        <v>0.6440086145709782</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7091563888359849</v>
+        <v>0.7115430072710399</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>14657</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7596</v>
+        <v>8768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23380</v>
+        <v>22927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03368454033881819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01745597136002591</v>
+        <v>0.02014971366733296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05373054215142008</v>
+        <v>0.05268853226763809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -9561,19 +9561,19 @@
         <v>29194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20535</v>
+        <v>21000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40542</v>
+        <v>40378</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0621553351418063</v>
+        <v>0.06215533514180629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.043720475454731</v>
+        <v>0.0447104743824961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0863161417174574</v>
+        <v>0.08596854392194424</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -9582,19 +9582,19 @@
         <v>43851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33090</v>
+        <v>33543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57667</v>
+        <v>56001</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04846348907754406</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03657071723479226</v>
+        <v>0.03707087688331549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06373246903323609</v>
+        <v>0.06189174120952089</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>105246</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87268</v>
+        <v>84274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>129318</v>
+        <v>127584</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2418671326740589</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2005519100986335</v>
+        <v>0.1936715367473548</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.297188739258386</v>
+        <v>0.2932040441920651</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>163</v>
@@ -9632,19 +9632,19 @@
         <v>117035</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>101310</v>
+        <v>102045</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134656</v>
+        <v>134909</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2491758225496643</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.215696067449134</v>
+        <v>0.2172614987036391</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2866920100281589</v>
+        <v>0.2872320588523527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>243</v>
@@ -9653,19 +9653,19 @@
         <v>222280</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>196573</v>
+        <v>198061</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>249754</v>
+        <v>251776</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2456610117619543</v>
+        <v>0.2456610117619542</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2172497678308783</v>
+        <v>0.2188938689275069</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.27602409776</v>
+        <v>0.2782588173158621</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>315235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291411</v>
+        <v>292308</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>335002</v>
+        <v>337762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7244483269871229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6696970530176495</v>
+        <v>0.6717602687672743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7698749759733733</v>
+        <v>0.7762185421689282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>417</v>
@@ -9703,19 +9703,19 @@
         <v>323459</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>304294</v>
+        <v>306430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>340032</v>
+        <v>341932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6886688423085295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6478660067042943</v>
+        <v>0.6524135040919757</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7239541923846972</v>
+        <v>0.7279992684461354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>644</v>
@@ -9724,19 +9724,19 @@
         <v>638694</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>608191</v>
+        <v>609557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>665096</v>
+        <v>663414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7058754991605016</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6721642193436814</v>
+        <v>0.6736735459010763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7350544740631464</v>
+        <v>0.7331953931070118</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>5540</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2428</v>
+        <v>2774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9814</v>
+        <v>10531</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01766608367539032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007743344663144454</v>
+        <v>0.008844604065481118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0312960583875938</v>
+        <v>0.03358268737190229</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -9849,19 +9849,19 @@
         <v>7101</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3649</v>
+        <v>3372</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12406</v>
+        <v>13181</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02016047607100939</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01035992986506806</v>
+        <v>0.009572900498906241</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03521943237164345</v>
+        <v>0.03742075755662463</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -9870,19 +9870,19 @@
         <v>12641</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7875</v>
+        <v>7626</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19010</v>
+        <v>19160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01898567865773492</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01182745337094708</v>
+        <v>0.01145418685689776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02855121286788549</v>
+        <v>0.02877618868416678</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>79272</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65074</v>
+        <v>65056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92226</v>
+        <v>93218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2527905315954707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2075142728914821</v>
+        <v>0.2074566707450494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2940998332233823</v>
+        <v>0.2972628164129563</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -9920,19 +9920,19 @@
         <v>105130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91055</v>
+        <v>90696</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119150</v>
+        <v>119515</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2984642574215485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2585055537613655</v>
+        <v>0.25748543393242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3382669538139445</v>
+        <v>0.3393020161831066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -9941,19 +9941,19 @@
         <v>184402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165393</v>
+        <v>164848</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205980</v>
+        <v>206157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2769530569186435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2484027365796852</v>
+        <v>0.2475843031856787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3093605943882773</v>
+        <v>0.3096267032792165</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>228775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215650</v>
+        <v>214330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>243889</v>
+        <v>242952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7295433847291389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6876885001749501</v>
+        <v>0.6834792440131835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7777392853275664</v>
+        <v>0.7747526203507359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>344</v>
@@ -9991,19 +9991,19 @@
         <v>240006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225894</v>
+        <v>226742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254109</v>
+        <v>254762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6813752665074421</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6413121186046191</v>
+        <v>0.6437200124927297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7214144687540256</v>
+        <v>0.7232685699849787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>596</v>
@@ -10012,19 +10012,19 @@
         <v>468781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447539</v>
+        <v>446819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>487830</v>
+        <v>488408</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7040612644236216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6721580689696478</v>
+        <v>0.6710763207129604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7326709263647267</v>
+        <v>0.7335398068692256</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>5863</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2666</v>
+        <v>2452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10856</v>
+        <v>10794</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01598396114955159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007267950923678149</v>
+        <v>0.006683873601902596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02959650351567529</v>
+        <v>0.02942934001310463</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -10137,19 +10137,19 @@
         <v>17755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12103</v>
+        <v>11334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26822</v>
+        <v>26367</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04418754214172253</v>
+        <v>0.04418754214172254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03012174920591349</v>
+        <v>0.02820769178011901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06675277456729074</v>
+        <v>0.06562153423062836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -10158,19 +10158,19 @@
         <v>23618</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16794</v>
+        <v>16902</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33698</v>
+        <v>32577</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03072834804343439</v>
+        <v>0.03072834804343438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02185093877553018</v>
+        <v>0.0219912365205155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04384418350982432</v>
+        <v>0.04238483806587386</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>95660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75678</v>
+        <v>76329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117382</v>
+        <v>118274</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.260806781488839</v>
+        <v>0.2608067814888391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2063298337036582</v>
+        <v>0.208103357869474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3200305121468046</v>
+        <v>0.3224618690831216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -10208,19 +10208,19 @@
         <v>138044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119486</v>
+        <v>120084</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155815</v>
+        <v>156843</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3435577292714869</v>
+        <v>0.343557729271487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2973702106396456</v>
+        <v>0.2988592997240386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3877852163515015</v>
+        <v>0.3903429345140212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -10229,19 +10229,19 @@
         <v>233704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>207457</v>
+        <v>207925</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262795</v>
+        <v>262423</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3040676706036485</v>
+        <v>0.3040676706036484</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2699187116799948</v>
+        <v>0.2705277837026108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3419175265445358</v>
+        <v>0.3414327938511809</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>265262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>242841</v>
+        <v>241938</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>285971</v>
+        <v>285032</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7232092573616092</v>
+        <v>0.7232092573616093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6620823524773547</v>
+        <v>0.6596203848213953</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7796724670244055</v>
+        <v>0.7771111799420939</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>320</v>
@@ -10279,19 +10279,19 @@
         <v>246009</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>227807</v>
+        <v>227357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>265645</v>
+        <v>266169</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6122547285867903</v>
+        <v>0.6122547285867904</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5669548104597293</v>
+        <v>0.5658347266556131</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6611244154355428</v>
+        <v>0.6624286853189496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>517</v>
@@ -10300,19 +10300,19 @@
         <v>511270</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>482005</v>
+        <v>484141</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>538056</v>
+        <v>539871</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.6652039813529171</v>
+        <v>0.6652039813529169</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6271274167538945</v>
+        <v>0.6299062144361728</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7000538385554004</v>
+        <v>0.7024161387386084</v>
       </c>
     </row>
     <row r="19">
@@ -10417,19 +10417,19 @@
         <v>1188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3512</v>
+        <v>3463</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.005238412857607126</v>
+        <v>0.005238412857607125</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001471877527059179</v>
+        <v>0.001498554259345949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0154789411050824</v>
+        <v>0.01526461450775603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -10438,19 +10438,19 @@
         <v>1188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3241</v>
+        <v>3422</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00274766867425225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007843340452691832</v>
+        <v>0.0007805283486889413</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007493390929715767</v>
+        <v>0.007911314585795876</v>
       </c>
     </row>
     <row r="21">
@@ -10467,19 +10467,19 @@
         <v>67835</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56139</v>
+        <v>57536</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>79829</v>
+        <v>79992</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3298323821833615</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2729645857179218</v>
+        <v>0.2797571524323345</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3881506035388176</v>
+        <v>0.3889424255544116</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>234</v>
@@ -10488,19 +10488,19 @@
         <v>99599</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>89773</v>
+        <v>89876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110875</v>
+        <v>109937</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.438995845116572</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3956872291848273</v>
+        <v>0.3961394174184691</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4886978948468869</v>
+        <v>0.4845612178472919</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>338</v>
@@ -10509,19 +10509,19 @@
         <v>167434</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>152569</v>
+        <v>153008</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>185300</v>
+        <v>184518</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3870911427331156</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3527244444929359</v>
+        <v>0.3537408326022433</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4283962951954923</v>
+        <v>0.4265867716530159</v>
       </c>
     </row>
     <row r="22">
@@ -10538,19 +10538,19 @@
         <v>137830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125836</v>
+        <v>125673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>149526</v>
+        <v>148129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6701676178166384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6118493964611822</v>
+        <v>0.6110575744455887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7270354142820781</v>
+        <v>0.7202428475676655</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>254</v>
@@ -10559,19 +10559,19 @@
         <v>126092</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114815</v>
+        <v>115355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135989</v>
+        <v>135689</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5557657420258209</v>
+        <v>0.5557657420258207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5060622602063048</v>
+        <v>0.5084431808994776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5993911991327489</v>
+        <v>0.5980687718523896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>429</v>
@@ -10580,19 +10580,19 @@
         <v>263922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>246559</v>
+        <v>246383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>278957</v>
+        <v>278373</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.610161188592632</v>
+        <v>0.6101611885926322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5700204186734907</v>
+        <v>0.5696125899456587</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6449223710509251</v>
+        <v>0.64357110513352</v>
       </c>
     </row>
     <row r="23">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3257</v>
+        <v>2830</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.003418151717404884</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01203129208705291</v>
+        <v>0.01045411701754316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -10705,19 +10705,19 @@
         <v>1261</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004787399948072867</v>
+        <v>0.004787399948072866</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001354561446440884</v>
+        <v>0.001374832456361031</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01302085421118715</v>
+        <v>0.01303143002006815</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -10726,19 +10726,19 @@
         <v>2186</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4854</v>
+        <v>4819</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004093347084983769</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0009360506895413931</v>
+        <v>0.001461614048467415</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009089729507036416</v>
+        <v>0.009024254158091884</v>
       </c>
     </row>
     <row r="25">
@@ -10755,19 +10755,19 @@
         <v>62268</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51810</v>
+        <v>51136</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74765</v>
+        <v>73685</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2300187596848195</v>
+        <v>0.2300187596848194</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1913881737555597</v>
+        <v>0.1888961567073832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2761841971276315</v>
+        <v>0.272194707722389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -10776,19 +10776,19 @@
         <v>91341</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79744</v>
+        <v>78786</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104012</v>
+        <v>102581</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3468395744122478</v>
+        <v>0.3468395744122477</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3028029627726251</v>
+        <v>0.2991650830393318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3949545531455478</v>
+        <v>0.3895216978975358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -10797,19 +10797,19 @@
         <v>153609</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>137488</v>
+        <v>138173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170952</v>
+        <v>170517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2876247300078711</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2574397948041187</v>
+        <v>0.2587216127162658</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3200991748816805</v>
+        <v>0.3192849972158579</v>
       </c>
     </row>
     <row r="26">
@@ -10826,19 +10826,19 @@
         <v>207514</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>194943</v>
+        <v>195732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>217973</v>
+        <v>218732</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7665630885977758</v>
+        <v>0.7665630885977757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7201241302516821</v>
+        <v>0.7230385276809402</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8052002980920596</v>
+        <v>0.8080015908717825</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>268</v>
@@ -10847,19 +10847,19 @@
         <v>170750</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>158494</v>
+        <v>159752</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>182288</v>
+        <v>183841</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6483730256396795</v>
+        <v>0.6483730256396794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6018323934174767</v>
+        <v>0.6066092315553892</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6921841251790802</v>
+        <v>0.6980800375646671</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>535</v>
@@ -10868,19 +10868,19 @@
         <v>378264</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>360653</v>
+        <v>361568</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>394352</v>
+        <v>394160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.708281922907145</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6753061338169587</v>
+        <v>0.6770194594016694</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7384043941635456</v>
+        <v>0.7380462286725368</v>
       </c>
     </row>
     <row r="27">
@@ -10972,19 +10972,19 @@
         <v>12914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7036</v>
+        <v>7637</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21232</v>
+        <v>21503</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0179440601024249</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009776470551546622</v>
+        <v>0.01061136919644213</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02950136038384259</v>
+        <v>0.02987809450549854</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -10993,19 +10993,19 @@
         <v>17146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10659</v>
+        <v>10925</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25838</v>
+        <v>26288</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0224370965896954</v>
+        <v>0.02243709658969539</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01394845397271154</v>
+        <v>0.014296906146663</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0338119224336557</v>
+        <v>0.03440144669972616</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -11014,19 +11014,19 @@
         <v>30060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21573</v>
+        <v>21356</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>41911</v>
+        <v>42718</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02025792193519442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01453874156444536</v>
+        <v>0.01439194850896875</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0282443714115784</v>
+        <v>0.02878859312211473</v>
       </c>
     </row>
     <row r="29">
@@ -11043,19 +11043,19 @@
         <v>203034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>176025</v>
+        <v>177378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>229525</v>
+        <v>229538</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.282114355012575</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2445856328754189</v>
+        <v>0.2464648395885532</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3189228965299591</v>
+        <v>0.3189417797631058</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>341</v>
@@ -11064,19 +11064,19 @@
         <v>263461</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>240283</v>
+        <v>238298</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>288088</v>
+        <v>290110</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.344768230828315</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3144378037218357</v>
+        <v>0.3118394084333608</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3769954406567906</v>
+        <v>0.3796411644892969</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>530</v>
@@ -11085,19 +11085,19 @@
         <v>466495</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>428456</v>
+        <v>429559</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>501552</v>
+        <v>502527</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3143803765184881</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2887447281678968</v>
+        <v>0.2894884505078146</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3380058499147204</v>
+        <v>0.3386632475127148</v>
       </c>
     </row>
     <row r="30">
@@ -11114,19 +11114,19 @@
         <v>503739</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>476734</v>
+        <v>475867</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>530047</v>
+        <v>529941</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6999415848850001</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6624189424090363</v>
+        <v>0.6612136483068569</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7364967276173517</v>
+        <v>0.7363488632790276</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>585</v>
@@ -11135,19 +11135,19 @@
         <v>483561</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>457590</v>
+        <v>457630</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>507348</v>
+        <v>508471</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6327946725819896</v>
+        <v>0.6327946725819895</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5988084215688714</v>
+        <v>0.5988604875574919</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6639223847001737</v>
+        <v>0.6653911244820304</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>982</v>
@@ -11156,19 +11156,19 @@
         <v>987301</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>950272</v>
+        <v>952010</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1026374</v>
+        <v>1023108</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6653617015463175</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6404068482606315</v>
+        <v>0.6415783523239013</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6916938961712843</v>
+        <v>0.6894930681436867</v>
       </c>
     </row>
     <row r="31">
@@ -11260,19 +11260,19 @@
         <v>4042</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1367</v>
+        <v>1388</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9668</v>
+        <v>9883</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.00506527650361438</v>
+        <v>0.005065276503614379</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001712715264663075</v>
+        <v>0.00173962650513468</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01211397308495664</v>
+        <v>0.01238331112411518</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -11281,19 +11281,19 @@
         <v>10966</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5546</v>
+        <v>6060</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19783</v>
+        <v>20612</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0132217833373203</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006686848941032256</v>
+        <v>0.007306429799939038</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02385134048051921</v>
+        <v>0.02485140638038566</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -11302,19 +11302,19 @@
         <v>15009</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8835</v>
+        <v>9250</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25741</v>
+        <v>24756</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009222058293271338</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005428687716917334</v>
+        <v>0.005683567052000496</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01581666127421856</v>
+        <v>0.01521135791771976</v>
       </c>
     </row>
     <row r="33">
@@ -11331,19 +11331,19 @@
         <v>84265</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>68715</v>
+        <v>68949</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>101643</v>
+        <v>101705</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1055853738878543</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08610109331882328</v>
+        <v>0.086393897170026</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1273605089967992</v>
+        <v>0.1274388103838052</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>150</v>
@@ -11352,19 +11352,19 @@
         <v>107514</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>92124</v>
+        <v>91962</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>125487</v>
+        <v>125231</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1296266958041325</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1110722244059155</v>
+        <v>0.1108768722936398</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1512965603923778</v>
+        <v>0.1509885952959993</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>244</v>
@@ -11373,19 +11373,19 @@
         <v>191778</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>170311</v>
+        <v>167536</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>217794</v>
+        <v>217039</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1178374973983621</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.104647140444589</v>
+        <v>0.1029420793118861</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1338223828762425</v>
+        <v>0.133358657151154</v>
       </c>
     </row>
     <row r="34">
@@ -11402,19 +11402,19 @@
         <v>709765</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>692380</v>
+        <v>691891</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>726589</v>
+        <v>726030</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8893493496085313</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8675652368795856</v>
+        <v>0.866953708181958</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9104301160429039</v>
+        <v>0.9097295044958391</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>896</v>
@@ -11423,19 +11423,19 @@
         <v>710930</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>691306</v>
+        <v>691512</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>726749</v>
+        <v>727989</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8571515208585472</v>
+        <v>0.8571515208585474</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8334910195541994</v>
+        <v>0.8337391886808267</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8762236322766026</v>
+        <v>0.8777191339584275</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1559</v>
@@ -11444,19 +11444,19 @@
         <v>1420695</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1395913</v>
+        <v>1395220</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1445461</v>
+        <v>1445901</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8729404443083665</v>
+        <v>0.8729404443083664</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8577135734610539</v>
+        <v>0.8572874986095024</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8881577168231456</v>
+        <v>0.8884284621575007</v>
       </c>
     </row>
     <row r="35">
@@ -11548,19 +11548,19 @@
         <v>51865</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40300</v>
+        <v>40202</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>67208</v>
+        <v>66081</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0151277932305876</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01175456921472669</v>
+        <v>0.01172592797218506</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01960289280361484</v>
+        <v>0.01927417234963846</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>134</v>
@@ -11569,19 +11569,19 @@
         <v>92960</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>76793</v>
+        <v>77668</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>110717</v>
+        <v>112082</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02565398382452969</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02119247379501914</v>
+        <v>0.02143397779993783</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03055444394756477</v>
+        <v>0.03093100025477498</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>197</v>
@@ -11590,19 +11590,19 @@
         <v>144825</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>125943</v>
+        <v>124979</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>169965</v>
+        <v>167730</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02053650781440632</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01785902890430757</v>
+        <v>0.0177223176292021</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02410131573431561</v>
+        <v>0.02378450816398762</v>
       </c>
     </row>
     <row r="37">
@@ -11619,19 +11619,19 @@
         <v>788381</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>734698</v>
+        <v>739002</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>838864</v>
+        <v>842499</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2299502294411165</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2142924017783474</v>
+        <v>0.2155475406572317</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2446749569255689</v>
+        <v>0.2457351318101312</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1649</v>
@@ -11640,19 +11640,19 @@
         <v>1020114</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>970998</v>
+        <v>973797</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1064999</v>
+        <v>1063868</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.281519312021153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2679649860656368</v>
+        <v>0.2687373031706793</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2939060484006469</v>
+        <v>0.2935941709732001</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2492</v>
@@ -11661,19 +11661,19 @@
         <v>1808495</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1735417</v>
+        <v>1737307</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1873200</v>
+        <v>1877801</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.256448177253815</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2460856045856352</v>
+        <v>0.2463535402391888</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2656235640074069</v>
+        <v>0.2662758927852159</v>
       </c>
     </row>
     <row r="38">
@@ -11690,19 +11690,19 @@
         <v>2588239</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3425</v>
@@ -11711,19 +11711,19 @@
         <v>2510528</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5824</v>
@@ -11732,19 +11732,19 @@
         <v>5098767</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="39">
